--- a/Every-People/EveryPeople_API_명세서.xlsx
+++ b/Every-People/EveryPeople_API_명세서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaeji/Code/Rising_Camp_Plus/Week 4 REST API &amp; Spring/Project_Every_People/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaeji/Code/Every-People/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF23CF49-080D-4E49-85A7-F1B65957E0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD711C8-A64A-9742-9170-F578BC14B2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="인수인계 사항" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="171">
   <si>
     <t>Server</t>
   </si>
@@ -505,6 +505,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
       </rPr>
       <t>특정</t>
     </r>
@@ -522,68 +523,9 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
       </rPr>
       <t>유저의 친구 조회</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>특정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조회</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> API</t>
     </r>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -671,126 +613,6 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>글</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조회</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> API</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조회</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> API</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
         <charset val="129"/>
@@ -810,38 +632,6 @@
   </si>
   <si>
     <t>특정 유저의 댓글 조회</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>특정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유저의 글 조회</t>
-    </r>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -878,10 +668,6 @@
       </rPr>
       <t>계정 활성화, 비활성화</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 쓴 글 삭제</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -1123,6 +909,261 @@
       </rPr>
       <t>API</t>
     </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 정보 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조회</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유저 정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조회</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/posts</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{boardId}/posts</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{userId}/comments</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{userId}/{postId}/likes</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{boardId}/{userId}/posts</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{boardId}/{postId}/comments</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{userId}/{postId}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{userId}/{postId}/{comments}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{userId}/message</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{userId}/message_room</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저계정 삭제</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/{userId}/posts</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스트 삭제</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유저의 포스트 조회</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 포스트 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> API</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/posts/{postId}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 사용자의 모든 포스트 삭제</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/{userId}/friends</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/{userId}/friends/{friendId}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구 추가 API</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1231,6 +1272,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1415,13 +1457,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1455,6 +1493,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1476,6 +1515,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3238,8 +3278,8 @@
   </sheetPr>
   <dimension ref="A1:L1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="149" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -3292,7 +3332,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="1"/>
@@ -3346,7 +3386,7 @@
         <v>61</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>62</v>
@@ -3365,14 +3405,14 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="1"/>
@@ -3390,11 +3430,13 @@
       <c r="F8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="25" t="s">
-        <v>132</v>
+      <c r="G8" s="23" t="s">
+        <v>147</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -3412,11 +3454,13 @@
       <c r="F9" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="25" t="s">
-        <v>129</v>
+      <c r="G9" s="23" t="s">
+        <v>148</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -3431,8 +3475,14 @@
       <c r="E10" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>128</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -3448,14 +3498,16 @@
       <c r="E11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="29" t="s">
         <v>127</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>67</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -3465,16 +3517,21 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>137</v>
+        <v>65</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -3483,9 +3540,18 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="1"/>
-      <c r="G13" s="15"/>
+      <c r="D13" s="7">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>133</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="1"/>
@@ -3496,6 +3562,22 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
+      <c r="D14" s="7">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -3540,14 +3622,14 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
+      <c r="D18" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -3562,12 +3644,16 @@
       <c r="E19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="25" t="s">
-        <v>131</v>
+      <c r="F19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>165</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="I19" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -3582,9 +3668,11 @@
       <c r="E20" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="26" t="s">
-        <v>133</v>
+      <c r="F20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>130</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -3596,18 +3684,22 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="24">
+      <c r="D21" s="22">
         <v>3</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="27" t="s">
-        <v>135</v>
+      <c r="F21" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>164</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="I21" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -3616,15 +3708,17 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="16">
+      <c r="D22" s="15">
         <v>4</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="28" t="s">
-        <v>134</v>
+      <c r="F22" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>131</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -3642,14 +3736,19 @@
       <c r="E23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="28" t="s">
-        <v>142</v>
+      <c r="F23" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>137</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19"/>
+      <c r="I23" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J23" s="17"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="19"/>
+      <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
@@ -3659,16 +3758,19 @@
         <v>6</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>147</v>
+        <v>141</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>142</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="19"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="19"/>
+      <c r="L24" s="17"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
@@ -3678,36 +3780,39 @@
         <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>144</v>
+        <v>138</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>139</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="17"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="19"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="24">
+      <c r="D26" s="7">
         <v>8</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="19"/>
+      <c r="J26" s="17"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="19"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
@@ -3717,17 +3822,19 @@
         <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="26" t="s">
-        <v>139</v>
+        <v>132</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>134</v>
       </c>
       <c r="H27" s="7"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="19"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="17"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="19"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
@@ -3737,34 +3844,40 @@
         <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="26" t="s">
-        <v>140</v>
+        <v>155</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="19"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="17"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="19"/>
+      <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="7">
+      <c r="D29" s="22">
         <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="26" t="s">
-        <v>141</v>
+        <v>155</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>163</v>
       </c>
       <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="I29" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -3773,12 +3886,22 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="7"/>
+      <c r="D30" s="22">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>167</v>
+      </c>
       <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="I30" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -3787,14 +3910,14 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="D31" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3809,9 +3932,11 @@
       <c r="E32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="26" t="s">
-        <v>130</v>
+      <c r="F32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -3827,11 +3952,13 @@
         <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="26" t="s">
-        <v>145</v>
+        <v>155</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>140</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -3854,7 +3981,7 @@
       <c r="D35" s="7"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="29"/>
+      <c r="G35" s="27"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="1"/>
@@ -3868,7 +3995,7 @@
       <c r="D36" s="7"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="29"/>
+      <c r="G36" s="27"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="1"/>
@@ -3882,7 +4009,7 @@
       <c r="D37" s="7"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="29"/>
+      <c r="G37" s="27"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="1"/>
@@ -9739,9 +9866,6 @@
     <mergeCell ref="D31:I31"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F11" location="1!A1" display="/app/users" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -9754,7 +9878,9 @@
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -9979,7 +10105,7 @@
     <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="F13" s="20"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -10126,7 +10252,7 @@
       <c r="E22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="18">
         <v>100</v>
       </c>
       <c r="G22" s="1"/>
@@ -10147,7 +10273,7 @@
       <c r="E23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="19" t="s">
         <v>97</v>
       </c>
       <c r="G23" s="1"/>
@@ -10216,12 +10342,12 @@
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="9"/>
@@ -10229,10 +10355,10 @@
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="38"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -10240,10 +10366,10 @@
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -10251,10 +10377,10 @@
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="38"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -10262,10 +10388,10 @@
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -10273,10 +10399,10 @@
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="39"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="38"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -10284,10 +10410,10 @@
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="39"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="38"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -10295,10 +10421,10 @@
     <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="39"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="38"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -10306,10 +10432,10 @@
     <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="39"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="38"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -10317,10 +10443,10 @@
     <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="39"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="38"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -10328,10 +10454,10 @@
     <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="39"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="38"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -10339,10 +10465,10 @@
     <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="39"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="38"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -10350,10 +10476,10 @@
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="42"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="41"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -10389,7 +10515,7 @@
     <row r="44" spans="1:9" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="20">
+      <c r="C44" s="18">
         <v>100</v>
       </c>
       <c r="D44" s="6" t="s">
@@ -10404,10 +10530,10 @@
     <row r="45" spans="1:9" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="20">
+      <c r="C45" s="18">
         <v>101</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="19" t="s">
         <v>103</v>
       </c>
       <c r="E45" s="1"/>
@@ -10419,7 +10545,7 @@
     <row r="46" spans="1:9" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="20"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -11459,7 +11585,7 @@
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="143" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -11747,7 +11873,7 @@
       <c r="E18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="20" t="s">
         <v>111</v>
       </c>
       <c r="I18" s="1"/>
@@ -11837,7 +11963,7 @@
       <c r="E24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="18">
         <v>100</v>
       </c>
       <c r="G24" s="1"/>
@@ -11890,12 +12016,12 @@
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -11903,10 +12029,10 @@
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="38"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -11914,10 +12040,10 @@
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -11925,10 +12051,10 @@
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="38"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -11936,10 +12062,10 @@
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -11947,30 +12073,30 @@
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="39"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="38"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="39"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="38"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="42"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="41"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
@@ -12003,7 +12129,7 @@
     <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="20">
+      <c r="C39" s="18">
         <v>100</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -12017,7 +12143,7 @@
     <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="20">
+      <c r="C40" s="18">
         <v>200</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -12031,7 +12157,7 @@
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="20">
+      <c r="C41" s="18">
         <v>207</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -13081,7 +13207,7 @@
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A11" zoomScale="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -13368,7 +13494,7 @@
       <c r="E19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="20" t="s">
         <v>111</v>
       </c>
       <c r="I19" s="1"/>
@@ -13458,7 +13584,7 @@
       <c r="E25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="18">
         <v>100</v>
       </c>
       <c r="G25" s="1"/>
@@ -13511,12 +13637,12 @@
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -13524,10 +13650,10 @@
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -13535,10 +13661,10 @@
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="38"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -13546,10 +13672,10 @@
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -13557,40 +13683,40 @@
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="39"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="38"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="39"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="38"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="39"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="38"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="41"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
@@ -13623,7 +13749,7 @@
     <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="20">
+      <c r="C40" s="18">
         <v>100</v>
       </c>
       <c r="D40" s="6" t="s">
@@ -13637,7 +13763,7 @@
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="20">
+      <c r="C41" s="18">
         <v>200</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -13652,7 +13778,7 @@
     <row r="42" spans="1:9" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="20">
+      <c r="C42" s="18">
         <v>207</v>
       </c>
       <c r="D42" s="1" t="s">

--- a/Every-People/EveryPeople_API_명세서.xlsx
+++ b/Every-People/EveryPeople_API_명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaeji/Code/Every-People/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD711C8-A64A-9742-9170-F578BC14B2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D0C278-ACBA-1C46-AA8D-C9F2411FDE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="172">
   <si>
     <t>Server</t>
   </si>
@@ -1164,6 +1164,10 @@
   </si>
   <si>
     <t>친구 추가 API</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/posts/{userId}</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1494,6 +1498,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1515,7 +1520,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3278,8 +3282,8 @@
   </sheetPr>
   <dimension ref="A1:L1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="149" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="149" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -3405,14 +3409,14 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="1"/>
@@ -3522,7 +3526,7 @@
       <c r="E12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="30" t="s">
         <v>169</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -3541,19 +3545,21 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="24" t="s">
-        <v>133</v>
+      <c r="G13" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -3562,22 +3568,6 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="7">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -3622,14 +3612,14 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -3662,20 +3652,22 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="7">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="D20" s="22">
+        <v>3</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>130</v>
+      <c r="F20" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>164</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="I20" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3684,20 +3676,20 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="22">
-        <v>3</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>125</v>
+      <c r="D21" s="8">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>164</v>
+        <v>153</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>137</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="16" t="s">
         <v>160</v>
       </c>
       <c r="J21" s="1"/>
@@ -3708,20 +3700,22 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="15">
-        <v>4</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>131</v>
+      <c r="D22" s="22">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>163</v>
       </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="I22" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -3730,20 +3724,20 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="8">
-        <v>5</v>
+      <c r="D23" s="22">
+        <v>12</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>167</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="16" t="s">
+      <c r="I23" s="7" t="s">
         <v>160</v>
       </c>
       <c r="J23" s="17"/>
@@ -3754,20 +3748,6 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="8">
-        <v>6</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="16"/>
       <c r="J24" s="17"/>
       <c r="K24" s="1"/>
       <c r="L24" s="17"/>
@@ -3776,20 +3756,6 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="8">
-        <v>7</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="16"/>
       <c r="J25" s="17"/>
       <c r="K25" s="1"/>
       <c r="L25" s="17"/>
@@ -3798,18 +3764,6 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="7">
-        <v>8</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="J26" s="17"/>
       <c r="K26" s="1"/>
       <c r="L26" s="17"/>
@@ -3818,20 +3772,6 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="8">
-        <v>9</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="16"/>
       <c r="J27" s="17"/>
       <c r="K27" s="1"/>
       <c r="L27" s="17"/>
@@ -3840,20 +3780,6 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="8">
-        <v>10</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="16"/>
       <c r="J28" s="17"/>
       <c r="K28" s="1"/>
       <c r="L28" s="17"/>
@@ -3862,22 +3788,6 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="22">
-        <v>11</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -3886,22 +3796,6 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="22">
-        <v>12</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -3910,14 +3804,14 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -4020,12 +3914,6 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -4034,10 +3922,18 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="8"/>
+      <c r="D39" s="7">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>130</v>
+      </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="1"/>
@@ -4048,10 +3944,18 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="8"/>
+      <c r="D40" s="15">
+        <v>4</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>131</v>
+      </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="1"/>
@@ -4062,55 +3966,101 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="7"/>
+      <c r="D41" s="8">
+        <v>6</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>142</v>
+      </c>
       <c r="H41" s="7"/>
-      <c r="I41" s="8"/>
+      <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="7"/>
+      <c r="D42" s="8">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>139</v>
+      </c>
       <c r="H42" s="7"/>
-      <c r="I42" s="8"/>
+      <c r="I42" s="16"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1">
-      <c r="D43" s="7"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="8"/>
+      <c r="D43" s="7">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1">
-      <c r="D44" s="7"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="7"/>
+      <c r="D44" s="8">
+        <v>9</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>134</v>
+      </c>
       <c r="H44" s="7"/>
-      <c r="I44" s="8"/>
+      <c r="I44" s="16"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1">
-      <c r="D45" s="7"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="7"/>
+      <c r="D45" s="8">
+        <v>10</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>135</v>
+      </c>
       <c r="H45" s="7"/>
-      <c r="I45" s="8"/>
+      <c r="I45" s="16"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1">
-      <c r="D46" s="7"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="7"/>
+      <c r="D46" s="7">
+        <v>5</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>133</v>
+      </c>
       <c r="H46" s="7"/>
-      <c r="I46" s="8"/>
+      <c r="I46" s="7"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1">
       <c r="D47" s="7"/>
@@ -10342,12 +10292,12 @@
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="9"/>
@@ -10355,10 +10305,10 @@
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -10366,10 +10316,10 @@
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="39"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -10377,10 +10327,10 @@
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="38"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="39"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -10388,10 +10338,10 @@
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -10399,10 +10349,10 @@
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -10410,10 +10360,10 @@
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="38"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="39"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -10421,10 +10371,10 @@
     <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="38"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="39"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -10432,10 +10382,10 @@
     <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="38"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="39"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -10443,10 +10393,10 @@
     <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="38"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="39"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -10454,10 +10404,10 @@
     <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="38"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="39"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -10465,10 +10415,10 @@
     <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="38"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="39"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -10476,10 +10426,10 @@
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="41"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="42"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -12016,12 +11966,12 @@
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -12029,10 +11979,10 @@
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -12040,10 +11990,10 @@
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="39"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -12051,10 +12001,10 @@
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="38"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="39"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -12062,10 +12012,10 @@
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -12073,30 +12023,30 @@
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="38"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="39"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="41"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="42"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
@@ -13637,12 +13587,12 @@
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="36"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -13650,10 +13600,10 @@
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="39"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -13661,10 +13611,10 @@
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="38"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="39"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -13672,10 +13622,10 @@
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -13683,40 +13633,40 @@
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="38"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="39"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="38"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="39"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="41"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>

--- a/Every-People/EveryPeople_API_명세서.xlsx
+++ b/Every-People/EveryPeople_API_명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaeji/Code/Every-People/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D0C278-ACBA-1C46-AA8D-C9F2411FDE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9039D7-D84D-754B-B866-3EEDC329CE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-3600" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="인수인계 사항" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="170">
   <si>
     <t>Server</t>
   </si>
@@ -1030,10 +1030,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>/{boardId}/{userId}/posts</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>/{boardId}/{postId}/comments</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1050,23 +1046,11 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>/{userId}/message</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>/{userId}/message_room</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>유저계정 삭제</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>/users/{userId}/posts</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -1168,6 +1152,14 @@
   </si>
   <si>
     <t>/posts/{userId}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/chat/{userId}/message</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/chat/{messageRoomId}</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -3282,8 +3274,8 @@
   </sheetPr>
   <dimension ref="A1:L1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="149" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="149" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -3439,7 +3431,7 @@
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -3463,7 +3455,7 @@
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -3480,13 +3472,13 @@
         <v>125</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G10" s="22" t="s">
         <v>128</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -3510,7 +3502,7 @@
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -3527,14 +3519,14 @@
         <v>65</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -3548,17 +3540,17 @@
         <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>126</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -3638,11 +3630,11 @@
         <v>149</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -3659,14 +3651,14 @@
         <v>125</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -3683,14 +3675,14 @@
         <v>65</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>137</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -3704,17 +3696,17 @@
         <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -3728,17 +3720,17 @@
         <v>12</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="1"/>
@@ -3804,14 +3796,6 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3820,20 +3804,6 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="7">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -3842,20 +3812,6 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="7">
-        <v>2</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -3922,20 +3878,6 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="7">
-        <v>2</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -3944,20 +3886,6 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="15">
-        <v>4</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G40" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -3966,18 +3894,6 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="8">
-        <v>6</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="G41" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="H41" s="7"/>
       <c r="I41" s="16"/>
     </row>
@@ -3985,90 +3901,55 @@
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="8">
-        <v>7</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F42" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="G42" s="26" t="s">
-        <v>139</v>
-      </c>
       <c r="H42" s="7"/>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1">
-      <c r="D43" s="7">
-        <v>8</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G43" s="24" t="s">
-        <v>136</v>
-      </c>
-    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="44" spans="1:12" ht="15.75" customHeight="1">
-      <c r="D44" s="8">
-        <v>9</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>134</v>
-      </c>
       <c r="H44" s="7"/>
       <c r="I44" s="16"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1">
-      <c r="D45" s="8">
-        <v>10</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="16"/>
+      <c r="D45" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1">
       <c r="D46" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1">
-      <c r="D47" s="7"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="7"/>
+      <c r="D47" s="7">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>140</v>
+      </c>
       <c r="H47" s="7"/>
-      <c r="I47" s="8"/>
+      <c r="I47" s="7"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1">
       <c r="D48" s="7"/>
@@ -4087,50 +3968,130 @@
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="4:9" ht="15.75" customHeight="1">
-      <c r="D50" s="8"/>
-      <c r="G50" s="8"/>
+      <c r="D50" s="7">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>130</v>
+      </c>
       <c r="H50" s="7"/>
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="4:9" ht="15.75" customHeight="1">
-      <c r="D51" s="8"/>
-      <c r="G51" s="8"/>
+      <c r="D51" s="15">
+        <v>4</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G51" s="26" t="s">
+        <v>131</v>
+      </c>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="4:9" ht="15.75" customHeight="1">
-      <c r="D52" s="8"/>
-      <c r="G52" s="8"/>
+      <c r="D52" s="8">
+        <v>6</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>142</v>
+      </c>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="4:9" ht="15.75" customHeight="1">
-      <c r="D53" s="8"/>
-      <c r="G53" s="8"/>
+      <c r="D53" s="8">
+        <v>7</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>139</v>
+      </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="4:9" ht="15.75" customHeight="1">
-      <c r="D54" s="8"/>
-      <c r="G54" s="8"/>
+      <c r="D54" s="7">
+        <v>8</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>136</v>
+      </c>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="4:9" ht="15.75" customHeight="1">
-      <c r="D55" s="8"/>
-      <c r="G55" s="8"/>
+      <c r="D55" s="8">
+        <v>9</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>134</v>
+      </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="4:9" ht="15.75" customHeight="1">
-      <c r="D56" s="8"/>
-      <c r="G56" s="8"/>
+      <c r="D56" s="8">
+        <v>10</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>135</v>
+      </c>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
     </row>
     <row r="57" spans="4:9" ht="15.75" customHeight="1">
-      <c r="D57" s="8"/>
-      <c r="G57" s="8"/>
+      <c r="D57" s="7">
+        <v>5</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>133</v>
+      </c>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
     </row>
@@ -9813,7 +9774,7 @@
   <mergeCells count="3">
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D45:I45"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
